--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf1-Fgfr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf1-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H2">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I2">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J2">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.861658026684601</v>
+        <v>0.8651055000000001</v>
       </c>
       <c r="N2">
-        <v>0.861658026684601</v>
+        <v>1.730211</v>
       </c>
       <c r="O2">
-        <v>0.4560183191061482</v>
+        <v>0.418762651604452</v>
       </c>
       <c r="P2">
-        <v>0.4560183191061482</v>
+        <v>0.3305860461170526</v>
       </c>
       <c r="Q2">
-        <v>0.4278967227247707</v>
+        <v>0.4479901250947501</v>
       </c>
       <c r="R2">
-        <v>0.4278967227247707</v>
+        <v>1.791960500379</v>
       </c>
       <c r="S2">
-        <v>0.02993657578918591</v>
+        <v>0.02627810837877335</v>
       </c>
       <c r="T2">
-        <v>0.02993657578918591</v>
+        <v>0.01903516387735146</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H3">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I3">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J3">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.866153184334875</v>
+        <v>0.9897559999999999</v>
       </c>
       <c r="N3">
-        <v>0.866153184334875</v>
+        <v>2.969268</v>
       </c>
       <c r="O3">
-        <v>0.4583973072572623</v>
+        <v>0.4791009269984018</v>
       </c>
       <c r="P3">
-        <v>0.4583973072572623</v>
+        <v>0.5673288217343945</v>
       </c>
       <c r="Q3">
-        <v>0.4301290041718365</v>
+        <v>0.512539700942</v>
       </c>
       <c r="R3">
-        <v>0.4301290041718365</v>
+        <v>3.075238205652</v>
       </c>
       <c r="S3">
-        <v>0.03009275100431105</v>
+        <v>0.0300644435118505</v>
       </c>
       <c r="T3">
-        <v>0.03009275100431105</v>
+        <v>0.0326668267487466</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H4">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I4">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J4">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.108205910156539</v>
+        <v>0.1122906666666667</v>
       </c>
       <c r="N4">
-        <v>0.108205910156539</v>
+        <v>0.336872</v>
       </c>
       <c r="O4">
-        <v>0.05726619579788061</v>
+        <v>0.0543553789957005</v>
       </c>
       <c r="P4">
-        <v>0.05726619579788061</v>
+        <v>0.06436508756882468</v>
       </c>
       <c r="Q4">
-        <v>0.0537347217823596</v>
+        <v>0.05814910413466667</v>
       </c>
       <c r="R4">
-        <v>0.0537347217823596</v>
+        <v>0.348894624808</v>
       </c>
       <c r="S4">
-        <v>0.003759396802352056</v>
+        <v>0.003410897640335633</v>
       </c>
       <c r="T4">
-        <v>0.003759396802352056</v>
+        <v>0.003706145508086088</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H5">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I5">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J5">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0535079057429834</v>
+        <v>0.09870900000000001</v>
       </c>
       <c r="N5">
-        <v>0.0535079057429834</v>
+        <v>0.197418</v>
       </c>
       <c r="O5">
-        <v>0.02831817783870889</v>
+        <v>0.04778104240144566</v>
       </c>
       <c r="P5">
-        <v>0.02831817783870889</v>
+        <v>0.0377200445797283</v>
       </c>
       <c r="Q5">
-        <v>0.02657186122362819</v>
+        <v>0.05111591275050001</v>
       </c>
       <c r="R5">
-        <v>0.02657186122362819</v>
+        <v>0.204463651002</v>
       </c>
       <c r="S5">
-        <v>0.001859024608357502</v>
+        <v>0.002998346213219472</v>
       </c>
       <c r="T5">
-        <v>0.001859024608357502</v>
+        <v>0.002171922373825487</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.916424667182295</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H6">
-        <v>0.916424667182295</v>
+        <v>1.582565</v>
       </c>
       <c r="I6">
-        <v>0.1211469771455122</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J6">
-        <v>0.1211469771455122</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.861658026684601</v>
+        <v>0.8651055000000001</v>
       </c>
       <c r="N6">
-        <v>0.861658026684601</v>
+        <v>1.730211</v>
       </c>
       <c r="O6">
-        <v>0.4560183191061482</v>
+        <v>0.418762651604452</v>
       </c>
       <c r="P6">
-        <v>0.4560183191061482</v>
+        <v>0.3305860461170526</v>
       </c>
       <c r="Q6">
-        <v>0.7896446703293886</v>
+        <v>0.4563618952025001</v>
       </c>
       <c r="R6">
-        <v>0.7896446703293886</v>
+        <v>2.738171371215</v>
       </c>
       <c r="S6">
-        <v>0.05524524088268742</v>
+        <v>0.0267691778686803</v>
       </c>
       <c r="T6">
-        <v>0.05524524088268742</v>
+        <v>0.0290863223627563</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.916424667182295</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H7">
-        <v>0.916424667182295</v>
+        <v>1.582565</v>
       </c>
       <c r="I7">
-        <v>0.1211469771455122</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J7">
-        <v>0.1211469771455122</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.866153184334875</v>
+        <v>0.9897559999999999</v>
       </c>
       <c r="N7">
-        <v>0.866153184334875</v>
+        <v>2.969268</v>
       </c>
       <c r="O7">
-        <v>0.4583973072572623</v>
+        <v>0.4791009269984018</v>
       </c>
       <c r="P7">
-        <v>0.4583973072572623</v>
+        <v>0.5673288217343945</v>
       </c>
       <c r="Q7">
-        <v>0.7937641436829728</v>
+        <v>0.5221177347133333</v>
       </c>
       <c r="R7">
-        <v>0.7937641436829728</v>
+        <v>4.69905961242</v>
       </c>
       <c r="S7">
-        <v>0.0555334481058599</v>
+        <v>0.03062626975622457</v>
       </c>
       <c r="T7">
-        <v>0.0555334481058599</v>
+        <v>0.04991592714958849</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.916424667182295</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H8">
-        <v>0.916424667182295</v>
+        <v>1.582565</v>
       </c>
       <c r="I8">
-        <v>0.1211469771455122</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J8">
-        <v>0.1211469771455122</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.108205910156539</v>
+        <v>0.1122906666666667</v>
       </c>
       <c r="N8">
-        <v>0.108205910156539</v>
+        <v>0.336872</v>
       </c>
       <c r="O8">
-        <v>0.05726619579788061</v>
+        <v>0.0543553789957005</v>
       </c>
       <c r="P8">
-        <v>0.05726619579788061</v>
+        <v>0.06436508756882468</v>
       </c>
       <c r="Q8">
-        <v>0.09916256520236356</v>
+        <v>0.05923575963111112</v>
       </c>
       <c r="R8">
-        <v>0.09916256520236356</v>
+        <v>0.5331218366800001</v>
       </c>
       <c r="S8">
-        <v>0.00693762651353627</v>
+        <v>0.003474638444666795</v>
       </c>
       <c r="T8">
-        <v>0.00693762651353627</v>
+        <v>0.00566310559058198</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.916424667182295</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H9">
-        <v>0.916424667182295</v>
+        <v>1.582565</v>
       </c>
       <c r="I9">
-        <v>0.1211469771455122</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J9">
-        <v>0.1211469771455122</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0535079057429834</v>
+        <v>0.09870900000000001</v>
       </c>
       <c r="N9">
-        <v>0.0535079057429834</v>
+        <v>0.197418</v>
       </c>
       <c r="O9">
-        <v>0.02831817783870889</v>
+        <v>0.04778104240144566</v>
       </c>
       <c r="P9">
-        <v>0.02831817783870889</v>
+        <v>0.0377200445797283</v>
       </c>
       <c r="Q9">
-        <v>0.04903596471213517</v>
+        <v>0.05207113619500001</v>
       </c>
       <c r="R9">
-        <v>0.04903596471213517</v>
+        <v>0.31242681717</v>
       </c>
       <c r="S9">
-        <v>0.003430661643428616</v>
+        <v>0.00305437750452351</v>
       </c>
       <c r="T9">
-        <v>0.003430661643428616</v>
+        <v>0.00331876492994821</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.15154740738719</v>
+        <v>0.9548856666666667</v>
       </c>
       <c r="H10">
-        <v>6.15154740738719</v>
+        <v>2.864657</v>
       </c>
       <c r="I10">
-        <v>0.8132052746502813</v>
+        <v>0.1157119372972211</v>
       </c>
       <c r="J10">
-        <v>0.8132052746502813</v>
+        <v>0.1592631742399304</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.861658026684601</v>
+        <v>0.8651055000000001</v>
       </c>
       <c r="N10">
-        <v>0.861658026684601</v>
+        <v>1.730211</v>
       </c>
       <c r="O10">
-        <v>0.4560183191061482</v>
+        <v>0.418762651604452</v>
       </c>
       <c r="P10">
-        <v>0.4560183191061482</v>
+        <v>0.3305860461170526</v>
       </c>
       <c r="Q10">
-        <v>5.300530200106019</v>
+        <v>0.8260768421045002</v>
       </c>
       <c r="R10">
-        <v>5.300530200106019</v>
+        <v>4.956461052627001</v>
       </c>
       <c r="S10">
-        <v>0.3708365024342748</v>
+        <v>0.04845583768487241</v>
       </c>
       <c r="T10">
-        <v>0.3708365024342748</v>
+        <v>0.05265018306402983</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.15154740738719</v>
+        <v>0.9548856666666667</v>
       </c>
       <c r="H11">
-        <v>6.15154740738719</v>
+        <v>2.864657</v>
       </c>
       <c r="I11">
-        <v>0.8132052746502813</v>
+        <v>0.1157119372972211</v>
       </c>
       <c r="J11">
-        <v>0.8132052746502813</v>
+        <v>0.1592631742399304</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.866153184334875</v>
+        <v>0.9897559999999999</v>
       </c>
       <c r="N11">
-        <v>0.866153184334875</v>
+        <v>2.969268</v>
       </c>
       <c r="O11">
-        <v>0.4583973072572623</v>
+        <v>0.4791009269984018</v>
       </c>
       <c r="P11">
-        <v>0.4583973072572623</v>
+        <v>0.5673288217343945</v>
       </c>
       <c r="Q11">
-        <v>5.328182375495358</v>
+        <v>0.9451038178973332</v>
       </c>
       <c r="R11">
-        <v>5.328182375495358</v>
+        <v>8.505934361075999</v>
       </c>
       <c r="S11">
-        <v>0.3727711081470914</v>
+        <v>0.05543769642387959</v>
       </c>
       <c r="T11">
-        <v>0.3727711081470914</v>
+        <v>0.09035458898721931</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.15154740738719</v>
+        <v>0.9548856666666667</v>
       </c>
       <c r="H12">
-        <v>6.15154740738719</v>
+        <v>2.864657</v>
       </c>
       <c r="I12">
-        <v>0.8132052746502813</v>
+        <v>0.1157119372972211</v>
       </c>
       <c r="J12">
-        <v>0.8132052746502813</v>
+        <v>0.1592631742399304</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.108205910156539</v>
+        <v>0.1122906666666667</v>
       </c>
       <c r="N12">
-        <v>0.108205910156539</v>
+        <v>0.336872</v>
       </c>
       <c r="O12">
-        <v>0.05726619579788061</v>
+        <v>0.0543553789957005</v>
       </c>
       <c r="P12">
-        <v>0.05726619579788061</v>
+        <v>0.06436508756882468</v>
       </c>
       <c r="Q12">
-        <v>0.6656337860874287</v>
+        <v>0.1072247481004445</v>
       </c>
       <c r="R12">
-        <v>0.6656337860874287</v>
+        <v>0.9650227329040001</v>
       </c>
       <c r="S12">
-        <v>0.04656917248199229</v>
+        <v>0.006289566206117187</v>
       </c>
       <c r="T12">
-        <v>0.04656917248199229</v>
+        <v>0.01025098815644211</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9548856666666667</v>
+      </c>
+      <c r="H13">
+        <v>2.864657</v>
+      </c>
+      <c r="I13">
+        <v>0.1157119372972211</v>
+      </c>
+      <c r="J13">
+        <v>0.1592631742399304</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.09870900000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.197418</v>
+      </c>
+      <c r="O13">
+        <v>0.04778104240144566</v>
+      </c>
+      <c r="P13">
+        <v>0.0377200445797283</v>
+      </c>
+      <c r="Q13">
+        <v>0.09425580927100001</v>
+      </c>
+      <c r="R13">
+        <v>0.565534855626</v>
+      </c>
+      <c r="S13">
+        <v>0.005528836982351944</v>
+      </c>
+      <c r="T13">
+        <v>0.006007414032239212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.252014</v>
+      </c>
+      <c r="H14">
+        <v>12.504028</v>
+      </c>
+      <c r="I14">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J14">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.8651055000000001</v>
+      </c>
+      <c r="N14">
+        <v>1.730211</v>
+      </c>
+      <c r="O14">
+        <v>0.418762651604452</v>
+      </c>
+      <c r="P14">
+        <v>0.3305860461170526</v>
+      </c>
+      <c r="Q14">
+        <v>5.408651697477</v>
+      </c>
+      <c r="R14">
+        <v>21.634606789908</v>
+      </c>
+      <c r="S14">
+        <v>0.317259527672126</v>
+      </c>
+      <c r="T14">
+        <v>0.2298143768129151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.252014</v>
+      </c>
+      <c r="H15">
+        <v>12.504028</v>
+      </c>
+      <c r="I15">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J15">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.9897559999999999</v>
+      </c>
+      <c r="N15">
+        <v>2.969268</v>
+      </c>
+      <c r="O15">
+        <v>0.4791009269984018</v>
+      </c>
+      <c r="P15">
+        <v>0.5673288217343945</v>
+      </c>
+      <c r="Q15">
+        <v>6.187968368583999</v>
+      </c>
+      <c r="R15">
+        <v>37.12781021150399</v>
+      </c>
+      <c r="S15">
+        <v>0.3629725173064472</v>
+      </c>
+      <c r="T15">
+        <v>0.3943914788488401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>6.15154740738719</v>
-      </c>
-      <c r="H13">
-        <v>6.15154740738719</v>
-      </c>
-      <c r="I13">
-        <v>0.8132052746502813</v>
-      </c>
-      <c r="J13">
-        <v>0.8132052746502813</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.0535079057429834</v>
-      </c>
-      <c r="N13">
-        <v>0.0535079057429834</v>
-      </c>
-      <c r="O13">
-        <v>0.02831817783870889</v>
-      </c>
-      <c r="P13">
-        <v>0.02831817783870889</v>
-      </c>
-      <c r="Q13">
-        <v>0.3291564188479676</v>
-      </c>
-      <c r="R13">
-        <v>0.3291564188479676</v>
-      </c>
-      <c r="S13">
-        <v>0.02302849158692277</v>
-      </c>
-      <c r="T13">
-        <v>0.02302849158692277</v>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.252014</v>
+      </c>
+      <c r="H16">
+        <v>12.504028</v>
+      </c>
+      <c r="I16">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J16">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1122906666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.336872</v>
+      </c>
+      <c r="O16">
+        <v>0.0543553789957005</v>
+      </c>
+      <c r="P16">
+        <v>0.06436508756882468</v>
+      </c>
+      <c r="Q16">
+        <v>0.7020428200693333</v>
+      </c>
+      <c r="R16">
+        <v>4.212256920416</v>
+      </c>
+      <c r="S16">
+        <v>0.0411802767045809</v>
+      </c>
+      <c r="T16">
+        <v>0.04474484831371452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.252014</v>
+      </c>
+      <c r="H17">
+        <v>12.504028</v>
+      </c>
+      <c r="I17">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J17">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.09870900000000001</v>
+      </c>
+      <c r="N17">
+        <v>0.197418</v>
+      </c>
+      <c r="O17">
+        <v>0.04778104240144566</v>
+      </c>
+      <c r="P17">
+        <v>0.0377200445797283</v>
+      </c>
+      <c r="Q17">
+        <v>0.6171300499260001</v>
+      </c>
+      <c r="R17">
+        <v>2.468520199704</v>
+      </c>
+      <c r="S17">
+        <v>0.03619948170135074</v>
+      </c>
+      <c r="T17">
+        <v>0.0262219432437154</v>
       </c>
     </row>
   </sheetData>
